--- a/data/HEC_timetables.xlsx
+++ b/data/HEC_timetables.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura Lo Priore\Documents\MASTER 2.1\Programming\project--G2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAA6D2E-61FD-46DB-A554-ADB77408560A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F92B9C-4984-4FB5-86E4-A8809EF69019}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{1883B477-72D8-4245-B2C9-4C3DBB3C06AE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{1883B477-72D8-4245-B2C9-4C3DBB3C06AE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="semester_1" sheetId="2" r:id="rId1"/>
+    <sheet name="semester_2" sheetId="3" r:id="rId2"/>
+    <sheet name="semester_3" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="242">
   <si>
     <t>Lundi</t>
   </si>
@@ -403,6 +405,396 @@
   </si>
   <si>
     <t>C.Peukert</t>
+  </si>
+  <si>
+    <t>ON LINE</t>
+  </si>
+  <si>
+    <t>6 cr. - Printemps</t>
+  </si>
+  <si>
+    <t>Biological Invasions</t>
+  </si>
+  <si>
+    <t>Details School of Biology</t>
+  </si>
+  <si>
+    <t>C.Bertelsmeier</t>
+  </si>
+  <si>
+    <t>1.5 cr. - Printemps</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>S.Scheidegger</t>
+  </si>
+  <si>
+    <t>Current Problems in Conservation Biology</t>
+  </si>
+  <si>
+    <t>C.Wedekind</t>
+  </si>
+  <si>
+    <t>3 cr. - Printemps</t>
+  </si>
+  <si>
+    <t>Neuro Economie</t>
+  </si>
+  <si>
+    <t>A.Villa</t>
+  </si>
+  <si>
+    <t>Introduction to Primate Behaviour, Cognition and Culture</t>
+  </si>
+  <si>
+    <t>E.Van de Waal</t>
+  </si>
+  <si>
+    <t>Co-Evolution, Mutualism, Parasitism</t>
+  </si>
+  <si>
+    <t>Aperiodic /Wed and Mon - details School of Biology</t>
+  </si>
+  <si>
+    <t>I.Sanders</t>
+  </si>
+  <si>
+    <t>Spatial Modelling of Species and Biodiversity</t>
+  </si>
+  <si>
+    <t>A.Guisan</t>
+  </si>
+  <si>
+    <t>Behavior, Economics, and Evolution Lecture Series</t>
+  </si>
+  <si>
+    <t>Internef 123</t>
+  </si>
+  <si>
+    <t>L.Lehmann</t>
+  </si>
+  <si>
+    <t>Environmental Economics</t>
+  </si>
+  <si>
+    <t>Except 1st /2nd lecture 14h15-16h- then alternate with Social Evolution</t>
+  </si>
+  <si>
+    <t>S.Di Falco</t>
+  </si>
+  <si>
+    <t>The Evolution of Cooperation: from Genes to Culture</t>
+  </si>
+  <si>
+    <t>Except 1st /2nd lecture 12h30-14h - then alternate with Env. Eco</t>
+  </si>
+  <si>
+    <t>Exercises</t>
+  </si>
+  <si>
+    <t>Genes, Populations and Evolution</t>
+  </si>
+  <si>
+    <t>Competitive Strategy</t>
+  </si>
+  <si>
+    <t>Internef 273</t>
+  </si>
+  <si>
+    <t>E.Amer Maistriau</t>
+  </si>
+  <si>
+    <t>Quantitative Methods for Management</t>
+  </si>
+  <si>
+    <r>
+      <t>Amphipôle 315 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>groupe A</t>
+    </r>
+  </si>
+  <si>
+    <t>J.Reboulleau</t>
+  </si>
+  <si>
+    <r>
+      <t>Amphipôle 315 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>groupe B</t>
+    </r>
+  </si>
+  <si>
+    <t>Marketing Science</t>
+  </si>
+  <si>
+    <t>Génopode B</t>
+  </si>
+  <si>
+    <t>M.Christen</t>
+  </si>
+  <si>
+    <t>Data Science in Business Analytics</t>
+  </si>
+  <si>
+    <t>T.Vatter</t>
+  </si>
+  <si>
+    <t>Organizational Theory and Decision Making</t>
+  </si>
+  <si>
+    <t>C.Zehnder</t>
+  </si>
+  <si>
+    <t>Strategic Marketing</t>
+  </si>
+  <si>
+    <t>K.Rege</t>
+  </si>
+  <si>
+    <t>Amphimax 415</t>
+  </si>
+  <si>
+    <t>Optimization Methods in Management Science</t>
+  </si>
+  <si>
+    <t>R.Oeuvray</t>
+  </si>
+  <si>
+    <t>Competitive Advantage &amp; Strategic Interactions</t>
+  </si>
+  <si>
+    <t>A.Conti</t>
+  </si>
+  <si>
+    <t>Distribution Management</t>
+  </si>
+  <si>
+    <t>Co-Modal</t>
+  </si>
+  <si>
+    <t>Machine Learning In Business Analytics</t>
+  </si>
+  <si>
+    <t>- Details School of Biology</t>
+  </si>
+  <si>
+    <t>Sustainable Logistics</t>
+  </si>
+  <si>
+    <t>Customer Relationship Management</t>
+  </si>
+  <si>
+    <t>Power and Leadership</t>
+  </si>
+  <si>
+    <t>B.Tur</t>
+  </si>
+  <si>
+    <t>Strategy Consulting Project</t>
+  </si>
+  <si>
+    <t>R.Iunius</t>
+  </si>
+  <si>
+    <t>Brand Development Strategic Project</t>
+  </si>
+  <si>
+    <t>R.Queiros</t>
+  </si>
+  <si>
+    <t>Managing People: Organizational Design, Change, and Performance</t>
+  </si>
+  <si>
+    <t>J.Dietz</t>
+  </si>
+  <si>
+    <t>Strategy of Innovation</t>
+  </si>
+  <si>
+    <t>International Strategy</t>
+  </si>
+  <si>
+    <t>U.Khan</t>
+  </si>
+  <si>
+    <t>Strategic Modelling</t>
+  </si>
+  <si>
+    <t>Internef 126</t>
+  </si>
+  <si>
+    <t>FACE TO FACE + Internef 121 et 122</t>
+  </si>
+  <si>
+    <t>A.van Ackere</t>
+  </si>
+  <si>
+    <t>Innovation Law</t>
+  </si>
+  <si>
+    <t>V.Junod</t>
+  </si>
+  <si>
+    <t>Innovation Strategy Project</t>
+  </si>
+  <si>
+    <t>New Trends in Product Innovation</t>
+  </si>
+  <si>
+    <t>2,9,16,23,30 March / 20,27 April / 4 May</t>
+  </si>
+  <si>
+    <t>F.Leclerc</t>
+  </si>
+  <si>
+    <t>Evidence-Based Management</t>
+  </si>
+  <si>
+    <t>Anthropole 3185</t>
+  </si>
+  <si>
+    <t>Advanced Data Analysis</t>
+  </si>
+  <si>
+    <t>Grand Challenges Strategy Project</t>
+  </si>
+  <si>
+    <t>P.Haack</t>
+  </si>
+  <si>
+    <t>Group Processes</t>
+  </si>
+  <si>
+    <t>F.Krings</t>
+  </si>
+  <si>
+    <t>Supply-Chain Analytics</t>
+  </si>
+  <si>
+    <t>S.De Treville</t>
+  </si>
+  <si>
+    <t>Forecasting I</t>
+  </si>
+  <si>
+    <t>Forecasting II</t>
+  </si>
+  <si>
+    <t>Last 7weeks</t>
+  </si>
+  <si>
+    <t>Sustainable Innovation Challenge</t>
+  </si>
+  <si>
+    <t>Limited nr of students</t>
+  </si>
+  <si>
+    <t>J.Petty</t>
+  </si>
+  <si>
+    <r>
+      <t>Anthropole 2013 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>groupe B</t>
+    </r>
+  </si>
+  <si>
+    <t>Negociations</t>
+  </si>
+  <si>
+    <t>Simple Rules for Leadership and Strategy: a Practical Approach</t>
+  </si>
+  <si>
+    <t>first 7 weeks - exercises - FACE TO FACE</t>
+  </si>
+  <si>
+    <t>The Management of Risk, Reputation and Legitimacy</t>
+  </si>
+  <si>
+    <t>Except 18March / 29April / 27 May in room ?</t>
+  </si>
+  <si>
+    <t>Environmental Crisis and Societal Change</t>
+  </si>
+  <si>
+    <t>Deep Learning</t>
+  </si>
+  <si>
+    <t>I.Rudnytskyi</t>
+  </si>
+  <si>
+    <t>Social Well Being</t>
+  </si>
+  <si>
+    <t>F.Petersen</t>
+  </si>
+  <si>
+    <t>LECTURE TAUGHT ON SITE</t>
+  </si>
+  <si>
+    <t>Consumer Behavior (MScM)</t>
+  </si>
+  <si>
+    <t>25 Feb / 11-25 March / 22 April / 6-20 May / 3 June</t>
+  </si>
+  <si>
+    <t>Sustainability Strategy Project</t>
+  </si>
+  <si>
+    <t>C.Fischer</t>
+  </si>
+  <si>
+    <t>Company Project in Business Analytics</t>
+  </si>
+  <si>
+    <t>ONl LINE</t>
+  </si>
+  <si>
+    <t>Project Management &amp; Outsourcing in a Digital Era (MScM-MDE)</t>
+  </si>
+  <si>
+    <t>P.Bienz</t>
+  </si>
+  <si>
+    <t>Brand Management</t>
+  </si>
+  <si>
+    <t>A.Dabrowska-Leszczynska</t>
+  </si>
+  <si>
+    <t>Social Media (EPFL)</t>
+  </si>
+  <si>
+    <t>15 HEC Students maximum</t>
+  </si>
+  <si>
+    <t>D.Gillet</t>
+  </si>
+  <si>
+    <t>Company Project in Marketing</t>
   </si>
 </sst>
 </file>
@@ -522,7 +914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -552,7 +944,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -561,13 +965,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -884,10 +1285,3393 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5ED3462-3A29-4B74-8E4F-4804FA450421}">
+  <dimension ref="A1:G46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="14">
+        <v>0.59375</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="16"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="14">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="16"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="16"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A17" s="14">
+        <v>0.59375</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="16"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="15"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="16"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="15"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="15"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="16"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A30" s="14">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="16"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" s="18"/>
+      <c r="G36" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="16"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" s="19"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="15"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" s="18"/>
+      <c r="G40" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="15"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="16"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="19"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A43" s="14">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="14">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="16"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="19"/>
+      <c r="G44" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="14">
+        <v>0.59375</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="16"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" s="19"/>
+      <c r="G46" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="60">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2067?dyn_lang=fr" xr:uid="{06360FC8-3B6B-4338-A987-A21110900BF1}"/>
+    <hyperlink ref="G3" r:id="rId2" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=eamermaistriau&amp;dyn_lang=fr" xr:uid="{C7B47A67-8D93-4F67-B565-A4B306B6AC58}"/>
+    <hyperlink ref="E8" r:id="rId3" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2220?dyn_lang=fr" xr:uid="{66C5D58F-BF7F-4B68-AA33-8E1901084401}"/>
+    <hyperlink ref="G8" r:id="rId4" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=jreboulleau&amp;dyn_lang=fr" xr:uid="{ED2DD307-B781-460F-8DCC-65B829960D9A}"/>
+    <hyperlink ref="E10" r:id="rId5" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2220?dyn_lang=fr" xr:uid="{4ED54A3B-96E8-436D-87A5-D95445DBA8AD}"/>
+    <hyperlink ref="G10" r:id="rId6" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=jreboulleau&amp;dyn_lang=fr" xr:uid="{F697DC10-5A81-4C76-956D-E2C4737391B0}"/>
+    <hyperlink ref="E15" r:id="rId7" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2649?dyn_lang=fr" xr:uid="{588244DD-1A72-4111-8266-B55D64ABAE14}"/>
+    <hyperlink ref="G15" r:id="rId8" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=mchristen&amp;dyn_lang=fr" xr:uid="{BD1266AB-3309-42E6-B92B-051A5B437732}"/>
+    <hyperlink ref="E17" r:id="rId9" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2576?dyn_lang=fr" xr:uid="{D0272165-989D-4749-B6AC-189CD03CC46F}"/>
+    <hyperlink ref="E22" r:id="rId10" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2341?dyn_lang=fr" xr:uid="{B106E102-B7AC-4464-B5EA-05A72DEB9AB8}"/>
+    <hyperlink ref="G22" r:id="rId11" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=czehnder&amp;dyn_lang=fr" xr:uid="{ED08085E-9D66-4CC6-97B3-EEBA4143925C}"/>
+    <hyperlink ref="E26" r:id="rId12" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2453?dyn_lang=fr" xr:uid="{2C576660-C273-4844-850E-F5C0324D08E2}"/>
+    <hyperlink ref="G26" r:id="rId13" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=krege&amp;dyn_lang=fr" xr:uid="{CA0EABDE-9889-4E7A-BE59-EB76634400DC}"/>
+    <hyperlink ref="E30" r:id="rId14" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2429?dyn_lang=fr" xr:uid="{55C47180-EE7B-432F-A8E0-54C39F26520C}"/>
+    <hyperlink ref="E35" r:id="rId15" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2341?dyn_lang=fr" xr:uid="{E4A2C90E-E06F-4C17-AD68-5678B0803E4A}"/>
+    <hyperlink ref="G35" r:id="rId16" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=czehnder&amp;dyn_lang=fr" xr:uid="{7B1BE34B-329C-45C3-8D43-2A285E75F0A7}"/>
+    <hyperlink ref="E39" r:id="rId17" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2453?dyn_lang=fr" xr:uid="{0EFD1C04-F360-4DB0-BA7F-A8DD1DCCA050}"/>
+    <hyperlink ref="G39" r:id="rId18" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=mchristen&amp;dyn_lang=fr" xr:uid="{69D3B459-CE4F-420E-926C-CC9F18950097}"/>
+    <hyperlink ref="E43" r:id="rId19" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2429?dyn_lang=fr" xr:uid="{9EC922BE-92E9-4BE2-8DB8-E371F28B1172}"/>
+    <hyperlink ref="E45" r:id="rId20" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2224?dyn_lang=fr" xr:uid="{61F4B689-7E33-4CE2-B3F3-BDEF42041F16}"/>
+    <hyperlink ref="G45" r:id="rId21" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=roeuvray&amp;dyn_lang=fr" xr:uid="{A4BA0CD1-6996-4284-A650-3A7FF19A3D46}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6470B3A3-5731-4661-B00A-7DFC3072DF21}">
+  <dimension ref="A1:G166"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="H164" sqref="H164"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="14">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="14">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="16"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="14">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="16"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="14">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="15"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="15"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="16"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="14">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="16"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="14">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="16"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="14">
+        <v>0.59375</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="16"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="14">
+        <v>0.59375</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="16"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="14">
+        <v>0.59375</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="16"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A28" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="18"/>
+      <c r="G29" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="15"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="16"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A32" s="14">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="14">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="16"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="A34" s="14">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="16"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="14">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="16"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F37" s="19"/>
+      <c r="G37" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="14">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A39" s="15"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" s="18"/>
+      <c r="G39" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="15"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="16"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="19"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="14">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="14">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="15"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="18"/>
+      <c r="G43" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="15"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="16"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F45" s="19"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="14">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="14">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="15"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F47" s="18"/>
+      <c r="G47" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="15"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="16"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F49" s="19"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A50" s="14">
+        <v>0.59375</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="14">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="16"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F51" s="19"/>
+      <c r="G51" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="14">
+        <v>0.59375</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F53" s="19"/>
+      <c r="G53" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="14">
+        <v>0.59375</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="16"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F55" s="19"/>
+      <c r="G55" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="14">
+        <v>0.59375</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F57" s="18"/>
+      <c r="G57" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="12"/>
+    </row>
+    <row r="59" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="16"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F59" s="19"/>
+      <c r="G59" s="6"/>
+    </row>
+    <row r="60" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A60" s="14">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="15"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F61" s="18"/>
+      <c r="G61" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="15"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="12"/>
+    </row>
+    <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="16"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F63" s="19"/>
+      <c r="G63" s="13"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="14">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="16"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F68" s="19"/>
+      <c r="G68" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A69" s="14">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="16"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F70" s="19"/>
+      <c r="G70" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A71" s="14">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="16"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F72" s="19"/>
+      <c r="G72" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="14">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="16"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F74" s="19"/>
+      <c r="G74" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A75" s="14">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="14">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="15"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F76" s="18"/>
+      <c r="G76" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="15"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="12"/>
+    </row>
+    <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="16"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F78" s="19"/>
+      <c r="G78" s="6"/>
+    </row>
+    <row r="79" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A79" s="14">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="14">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F79" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="15"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F80" s="18"/>
+      <c r="G80" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="15"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="12"/>
+    </row>
+    <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="16"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F82" s="19"/>
+      <c r="G82" s="6"/>
+    </row>
+    <row r="83" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="14">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="14">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="15"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F84" s="18"/>
+      <c r="G84" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="15"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="12"/>
+    </row>
+    <row r="86" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="16"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F86" s="19"/>
+      <c r="G86" s="6"/>
+    </row>
+    <row r="87" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A87" s="14">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="14">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F87" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A88" s="15"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F88" s="18"/>
+      <c r="G88" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="15"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="12"/>
+    </row>
+    <row r="90" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="16"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F90" s="19"/>
+      <c r="G90" s="6"/>
+    </row>
+    <row r="91" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A91" s="14">
+        <v>0.59375</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F91" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A92" s="15"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F92" s="18"/>
+      <c r="G92" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="15"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="12"/>
+    </row>
+    <row r="94" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="16"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F94" s="19"/>
+      <c r="G94" s="6"/>
+    </row>
+    <row r="95" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A95" s="14">
+        <v>0.59375</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F95" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="16"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F96" s="19"/>
+      <c r="G96" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A97" s="14">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A98" s="15"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F98" s="18"/>
+      <c r="G98" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="15"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="12"/>
+    </row>
+    <row r="100" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="16"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F100" s="19"/>
+      <c r="G100" s="13"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="2"/>
+    </row>
+    <row r="104" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A104" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F104" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="15"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F105" s="18"/>
+      <c r="G105" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="15"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="12"/>
+    </row>
+    <row r="107" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="16"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F107" s="19"/>
+      <c r="G107" s="6"/>
+    </row>
+    <row r="108" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A108" s="14">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F108" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="16"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F109" s="19"/>
+      <c r="G109" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A110" s="14">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F110" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" s="15"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F111" s="18"/>
+      <c r="G111" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="15"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="12"/>
+    </row>
+    <row r="113" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="16"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F113" s="19"/>
+      <c r="G113" s="6"/>
+    </row>
+    <row r="114" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A114" s="14">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" s="15"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F115" s="18"/>
+      <c r="G115" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="15"/>
+      <c r="B116" s="18"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="12"/>
+    </row>
+    <row r="117" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="16"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="19"/>
+      <c r="E117" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F117" s="19"/>
+      <c r="G117" s="6"/>
+    </row>
+    <row r="118" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A118" s="14">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F118" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A119" s="16"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F119" s="19"/>
+      <c r="G119" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A120" s="14">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" s="14">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F120" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" s="15"/>
+      <c r="B121" s="18"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="18"/>
+      <c r="E121" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F121" s="18"/>
+      <c r="G121" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" s="15"/>
+      <c r="B122" s="18"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="18"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="18"/>
+      <c r="G122" s="12"/>
+    </row>
+    <row r="123" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="16"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F123" s="19"/>
+      <c r="G123" s="6"/>
+    </row>
+    <row r="124" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A124" s="14">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B124" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="14">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F124" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="16"/>
+      <c r="B125" s="19"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F125" s="19"/>
+      <c r="G125" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A126" s="14">
+        <v>0.59375</v>
+      </c>
+      <c r="B126" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" s="14">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F126" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G126" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" s="15"/>
+      <c r="B127" s="18"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="18"/>
+      <c r="E127" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F127" s="18"/>
+      <c r="G127" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" s="15"/>
+      <c r="B128" s="18"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="18"/>
+      <c r="G128" s="12"/>
+    </row>
+    <row r="129" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A129" s="16"/>
+      <c r="B129" s="19"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F129" s="19"/>
+      <c r="G129" s="6"/>
+    </row>
+    <row r="130" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A130" s="14">
+        <v>0.59375</v>
+      </c>
+      <c r="B130" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F130" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" s="15"/>
+      <c r="B131" s="18"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F131" s="18"/>
+      <c r="G131" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" s="15"/>
+      <c r="B132" s="18"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="18"/>
+      <c r="G132" s="12"/>
+    </row>
+    <row r="133" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A133" s="16"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="F133" s="19"/>
+      <c r="G133" s="13"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A136" s="2"/>
+    </row>
+    <row r="137" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A137" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B137" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D137" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F137" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G137" s="11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A138" s="16"/>
+      <c r="B138" s="19"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="19"/>
+      <c r="E138" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F138" s="19"/>
+      <c r="G138" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A139" s="14">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="B139" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F139" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A140" s="16"/>
+      <c r="B140" s="19"/>
+      <c r="C140" s="16"/>
+      <c r="D140" s="19"/>
+      <c r="E140" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F140" s="19"/>
+      <c r="G140" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A141" s="14">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="B141" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D141" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F141" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G141" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A142" s="16"/>
+      <c r="B142" s="19"/>
+      <c r="C142" s="16"/>
+      <c r="D142" s="19"/>
+      <c r="E142" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F142" s="19"/>
+      <c r="G142" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A143" s="14">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B143" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" s="14">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D143" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F143" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G143" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A144" s="16"/>
+      <c r="B144" s="19"/>
+      <c r="C144" s="16"/>
+      <c r="D144" s="19"/>
+      <c r="E144" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F144" s="19"/>
+      <c r="G144" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A145" s="14">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B145" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" s="14">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D145" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F145" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G145" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A146" s="15"/>
+      <c r="B146" s="18"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="18"/>
+      <c r="E146" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F146" s="18"/>
+      <c r="G146" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A147" s="15"/>
+      <c r="B147" s="18"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="18"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="18"/>
+      <c r="G147" s="12"/>
+    </row>
+    <row r="148" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A148" s="16"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="16"/>
+      <c r="D148" s="19"/>
+      <c r="E148" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F148" s="19"/>
+      <c r="G148" s="6"/>
+    </row>
+    <row r="149" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A149" s="14">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B149" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" s="14">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D149" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F149" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G149" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A150" s="15"/>
+      <c r="B150" s="18"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="18"/>
+      <c r="E150" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F150" s="18"/>
+      <c r="G150" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A151" s="15"/>
+      <c r="B151" s="18"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="18"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="18"/>
+      <c r="G151" s="12"/>
+    </row>
+    <row r="152" spans="1:7" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A152" s="16"/>
+      <c r="B152" s="19"/>
+      <c r="C152" s="16"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F152" s="19"/>
+      <c r="G152" s="6"/>
+    </row>
+    <row r="153" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A153" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B153" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" s="14">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D153" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F153" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G153" s="11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A154" s="15"/>
+      <c r="B154" s="18"/>
+      <c r="C154" s="15"/>
+      <c r="D154" s="18"/>
+      <c r="E154" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F154" s="18"/>
+      <c r="G154" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A155" s="15"/>
+      <c r="B155" s="18"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="18"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="18"/>
+      <c r="G155" s="12"/>
+    </row>
+    <row r="156" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A156" s="16"/>
+      <c r="B156" s="19"/>
+      <c r="C156" s="16"/>
+      <c r="D156" s="19"/>
+      <c r="E156" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="F156" s="19"/>
+      <c r="G156" s="6"/>
+    </row>
+    <row r="157" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A157" s="14">
+        <v>0.59375</v>
+      </c>
+      <c r="B157" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" s="14">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D157" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F157" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A158" s="15"/>
+      <c r="B158" s="18"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="18"/>
+      <c r="E158" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F158" s="18"/>
+      <c r="G158" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A159" s="15"/>
+      <c r="B159" s="18"/>
+      <c r="C159" s="15"/>
+      <c r="D159" s="18"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="18"/>
+      <c r="G159" s="12"/>
+    </row>
+    <row r="160" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A160" s="16"/>
+      <c r="B160" s="19"/>
+      <c r="C160" s="16"/>
+      <c r="D160" s="19"/>
+      <c r="E160" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F160" s="19"/>
+      <c r="G160" s="6"/>
+    </row>
+    <row r="161" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A161" s="14">
+        <v>0.59375</v>
+      </c>
+      <c r="B161" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" s="14">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D161" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F161" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G161" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A162" s="16"/>
+      <c r="B162" s="19"/>
+      <c r="C162" s="16"/>
+      <c r="D162" s="19"/>
+      <c r="E162" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F162" s="19"/>
+      <c r="G162" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A163" s="14">
+        <v>0.59375</v>
+      </c>
+      <c r="B163" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" s="14">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D163" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F163" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A164" s="15"/>
+      <c r="B164" s="18"/>
+      <c r="C164" s="15"/>
+      <c r="D164" s="18"/>
+      <c r="E164" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F164" s="18"/>
+      <c r="G164" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A165" s="15"/>
+      <c r="B165" s="18"/>
+      <c r="C165" s="15"/>
+      <c r="D165" s="18"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="18"/>
+      <c r="G165" s="12"/>
+    </row>
+    <row r="166" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A166" s="16"/>
+      <c r="B166" s="19"/>
+      <c r="C166" s="16"/>
+      <c r="D166" s="19"/>
+      <c r="E166" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F166" s="19"/>
+      <c r="G166" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="255">
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="D161:D162"/>
+    <mergeCell ref="F161:F162"/>
+    <mergeCell ref="A163:A166"/>
+    <mergeCell ref="B163:B166"/>
+    <mergeCell ref="C163:C166"/>
+    <mergeCell ref="D163:D166"/>
+    <mergeCell ref="F163:F166"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="C153:C156"/>
+    <mergeCell ref="D153:D156"/>
+    <mergeCell ref="F153:F156"/>
+    <mergeCell ref="A157:A160"/>
+    <mergeCell ref="B157:B160"/>
+    <mergeCell ref="C157:C160"/>
+    <mergeCell ref="D157:D160"/>
+    <mergeCell ref="F157:F160"/>
+    <mergeCell ref="A145:A148"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="C145:C148"/>
+    <mergeCell ref="D145:D148"/>
+    <mergeCell ref="F145:F148"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="C149:C152"/>
+    <mergeCell ref="D149:D152"/>
+    <mergeCell ref="F149:F152"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="F126:F129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="F130:F133"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="C120:C123"/>
+    <mergeCell ref="D120:D123"/>
+    <mergeCell ref="F120:F123"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="F114:F117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="F110:F113"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="C97:C100"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="F97:F100"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="B104:B107"/>
+    <mergeCell ref="C104:C107"/>
+    <mergeCell ref="D104:D107"/>
+    <mergeCell ref="F104:F107"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="F91:F94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="C83:C86"/>
+    <mergeCell ref="D83:D86"/>
+    <mergeCell ref="F83:F86"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="D87:D90"/>
+    <mergeCell ref="F87:F90"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="D79:D82"/>
+    <mergeCell ref="F79:F82"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="F56:F59"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="F60:F63"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2526?dyn_lang=fr" xr:uid="{787C92D6-9E6F-4F39-90C5-9A8C196D7E1C}"/>
+    <hyperlink ref="G3" r:id="rId2" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=aconti&amp;dyn_lang=fr" xr:uid="{165401D3-1D15-42B4-A883-D43D9725C9E4}"/>
+    <hyperlink ref="E5" r:id="rId3" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2317?dyn_lang=fr" xr:uid="{749F98DD-B916-4E1C-81A4-310A860E67F3}"/>
+    <hyperlink ref="G5" r:id="rId4" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=teckardt&amp;dyn_lang=fr" xr:uid="{51AA807D-3960-4AA9-A01D-566CD1583230}"/>
+    <hyperlink ref="E9" r:id="rId5" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2600?dyn_lang=fr" xr:uid="{185E78B2-8B7A-4A22-9FAE-9F9FC00AB5AE}"/>
+    <hyperlink ref="G9" r:id="rId6" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=mboldi&amp;dyn_lang=fr" xr:uid="{709E35A7-D383-4846-B39F-CDCB241C0240}"/>
+    <hyperlink ref="E11" r:id="rId7" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2527?dyn_lang=fr" xr:uid="{FC1BBAD6-065C-4AD0-8EDF-119BCD26218A}"/>
+    <hyperlink ref="E15" r:id="rId8" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2388?dyn_lang=fr" xr:uid="{E603921D-4447-4480-9621-06C9FD029E0A}"/>
+    <hyperlink ref="G15" r:id="rId9" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=sscheidegger&amp;dyn_lang=fr" xr:uid="{42760077-B79E-4CDD-A490-4C3B874590BE}"/>
+    <hyperlink ref="E17" r:id="rId10" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2634?dyn_lang=fr" xr:uid="{6F710A08-E66A-4E47-BE66-3BB89CC0B3FA}"/>
+    <hyperlink ref="G17" r:id="rId11" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=ogallay&amp;dyn_lang=fr" xr:uid="{4BADE4C6-E9E9-43F5-9D2B-9363BA8D7F9C}"/>
+    <hyperlink ref="E19" r:id="rId12" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2279?dyn_lang=fr" xr:uid="{E861A060-E415-4DE2-938C-F68F4E88AA8A}"/>
+    <hyperlink ref="G19" r:id="rId13" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=mchristen&amp;dyn_lang=fr" xr:uid="{A31E3DAA-AC22-4455-A31B-DAABCAC2CF2A}"/>
+    <hyperlink ref="E21" r:id="rId14" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2629?dyn_lang=fr" xr:uid="{3E983355-9B61-496E-8EB7-1F753498A062}"/>
+    <hyperlink ref="E23" r:id="rId15" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2384?dyn_lang=fr" xr:uid="{F9B15713-9835-4E42-B082-4F54D21A4DED}"/>
+    <hyperlink ref="E28" r:id="rId16" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2117?dyn_lang=fr" xr:uid="{97870805-7B84-4321-8E5C-17B93D2BB8CC}"/>
+    <hyperlink ref="E32" r:id="rId17" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2626?dyn_lang=fr" xr:uid="{63A04FE3-C9AB-4B5D-BA12-3AD7D42BEB75}"/>
+    <hyperlink ref="E34" r:id="rId18" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2499?dyn_lang=fr" xr:uid="{749B343B-7988-4112-B5E7-5836EA89D52B}"/>
+    <hyperlink ref="G34" r:id="rId19" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=jdietz&amp;dyn_lang=fr" xr:uid="{0266CDE1-411D-44AF-BEBD-A9B296AE03BE}"/>
+    <hyperlink ref="E36" r:id="rId20" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2518?dyn_lang=fr" xr:uid="{8F17978B-FCA1-48EA-9E06-764A23C3D2C3}"/>
+    <hyperlink ref="G36" r:id="rId21" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=aconti&amp;dyn_lang=fr" xr:uid="{7C537F5A-6E0D-4811-B449-2A0184D95042}"/>
+    <hyperlink ref="E38" r:id="rId22" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2527?dyn_lang=fr" xr:uid="{80041462-2E58-40CF-B2A9-660B294500BB}"/>
+    <hyperlink ref="E42" r:id="rId23" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2615?dyn_lang=fr" xr:uid="{A208AD0A-C66D-4CBA-ACFB-98346135CDB1}"/>
+    <hyperlink ref="E46" r:id="rId24" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2416?dyn_lang=fr" xr:uid="{B2D164AC-0CA7-42CC-8DC9-39E3149DA0AD}"/>
+    <hyperlink ref="G46" r:id="rId25" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=avanackere&amp;dyn_lang=fr" xr:uid="{C9AF514E-D223-4C63-A54C-466A39149BCC}"/>
+    <hyperlink ref="E50" r:id="rId26" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2603?dyn_lang=fr" xr:uid="{B66469D5-1662-4CC2-8165-C3952E77B5E9}"/>
+    <hyperlink ref="G50" r:id="rId27" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=vjunod&amp;dyn_lang=fr" xr:uid="{8A84DB5B-7B37-470F-9614-D5A0EAC6E04B}"/>
+    <hyperlink ref="E52" r:id="rId28" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2503?dyn_lang=fr" xr:uid="{411EA24A-7E5C-46A3-AD12-90F1599FF9DB}"/>
+    <hyperlink ref="E54" r:id="rId29" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/1672?dyn_lang=fr" xr:uid="{02C7F543-BD58-4127-A1A6-178931C72571}"/>
+    <hyperlink ref="G54" r:id="rId30" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=avilla&amp;dyn_lang=fr" xr:uid="{F94ED0F6-0B76-4DF6-8D46-0D23F4459DD6}"/>
+    <hyperlink ref="E56" r:id="rId31" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2280?dyn_lang=fr" xr:uid="{F8DF132D-ECF9-4DEA-AD70-1F57C5CA8E18}"/>
+    <hyperlink ref="E60" r:id="rId32" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2418?dyn_lang=fr" xr:uid="{14B7EC34-BD3D-43F0-846B-E657641BE75B}"/>
+    <hyperlink ref="G60" r:id="rId33" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=jdietz&amp;dyn_lang=fr" xr:uid="{B7ADCF59-0B43-4C39-985B-00D8E6684CD6}"/>
+    <hyperlink ref="E67" r:id="rId34" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2389?dyn_lang=fr" xr:uid="{1CC26E28-6B0E-4D50-A606-22D08BE17301}"/>
+    <hyperlink ref="G67" r:id="rId35" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=sscheidegger&amp;dyn_lang=fr" xr:uid="{2C20A7B3-27F5-42D0-8CDE-E587506C2D3E}"/>
+    <hyperlink ref="E69" r:id="rId36" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2520?dyn_lang=fr" xr:uid="{04D19DFE-094B-447C-BE10-3487C1C8196B}"/>
+    <hyperlink ref="G69" r:id="rId37" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=phaack&amp;dyn_lang=fr" xr:uid="{AD74744D-F797-4D37-9C71-7CDC20E2AC86}"/>
+    <hyperlink ref="E71" r:id="rId38" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2395?dyn_lang=fr" xr:uid="{8F1DBB4B-CE7B-481B-9D1B-1F684B2D1D9D}"/>
+    <hyperlink ref="G71" r:id="rId39" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=fkrings&amp;dyn_lang=fr" xr:uid="{2811BBE0-B46F-4399-9FB6-1F9B20DE105E}"/>
+    <hyperlink ref="E73" r:id="rId40" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2381?dyn_lang=fr" xr:uid="{B8C06228-9FBE-4BBC-B2F2-7A2B351727ED}"/>
+    <hyperlink ref="E75" r:id="rId41" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2601?dyn_lang=fr" xr:uid="{9D37F1CC-DF03-4452-BE87-B43FA3DD5015}"/>
+    <hyperlink ref="G75" r:id="rId42" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=mbaumgartner&amp;dyn_lang=fr" xr:uid="{05EBF988-CDC8-4106-9E2F-0C9ADCCD88C0}"/>
+    <hyperlink ref="E79" r:id="rId43" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2602?dyn_lang=fr" xr:uid="{A6CA9F94-8C22-4995-9FEC-7C425135A4C4}"/>
+    <hyperlink ref="G79" r:id="rId44" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=vchavez&amp;dyn_lang=fr" xr:uid="{F21597FF-7AA0-4F1C-81EE-7DF28B9716E0}"/>
+    <hyperlink ref="E83" r:id="rId45" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2619?dyn_lang=fr" xr:uid="{5D9061B3-8F29-4516-BDD4-8E0959169AAF}"/>
+    <hyperlink ref="G83" r:id="rId46" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=jpetty&amp;dyn_lang=fr" xr:uid="{B6734016-EE24-49A2-ADCD-AF0BCB1DBDEE}"/>
+    <hyperlink ref="E87" r:id="rId47" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2300?dyn_lang=fr" xr:uid="{C81DCB41-FDA0-4C22-BFF8-2B3A6DC85C1B}"/>
+    <hyperlink ref="E91" r:id="rId48" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2615?dyn_lang=fr" xr:uid="{9ACD4A25-6142-4402-B2DB-E5BA3A1C2DBB}"/>
+    <hyperlink ref="E95" r:id="rId49" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2419?dyn_lang=fr" xr:uid="{3E1BD167-DF71-45D2-B31D-A4E20B7A440A}"/>
+    <hyperlink ref="G95" r:id="rId50" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=cefferson&amp;dyn_lang=fr" xr:uid="{24A021ED-EBEE-41DF-A6BB-75BA054E26CF}"/>
+    <hyperlink ref="E97" r:id="rId51" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2116?dyn_lang=fr" xr:uid="{8250792E-7F06-43B1-9F60-FB9F83FC3ED3}"/>
+    <hyperlink ref="E104" r:id="rId52" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2529?dyn_lang=fr" xr:uid="{90A7F1E2-1292-47C6-BE77-9788FEE7928C}"/>
+    <hyperlink ref="E108" r:id="rId53" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2630?dyn_lang=fr" xr:uid="{900FECC4-795E-49FC-9CAA-9331C4AACEF1}"/>
+    <hyperlink ref="G108" r:id="rId54" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=jmarewski&amp;dyn_lang=fr" xr:uid="{E542A3CF-122F-4B94-881E-030AC64DAF9A}"/>
+    <hyperlink ref="E110" r:id="rId55" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2416?dyn_lang=fr" xr:uid="{9790203B-1A4B-4CAF-A989-A24FE9339C8A}"/>
+    <hyperlink ref="G110" r:id="rId56" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=avanackere&amp;dyn_lang=fr" xr:uid="{56505C4C-235C-4329-AE54-8B92E3BA75D6}"/>
+    <hyperlink ref="E114" r:id="rId57" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2115?dyn_lang=fr" xr:uid="{0DB8F8DE-AEB1-4D5B-BC71-8C559B4BE63B}"/>
+    <hyperlink ref="G114" r:id="rId58" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=phaack&amp;dyn_lang=fr" xr:uid="{301A042B-FE30-4803-8B8C-56D554A5AADC}"/>
+    <hyperlink ref="E118" r:id="rId59" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2288?dyn_lang=fr" xr:uid="{A7929DB3-53F0-4601-BEBC-659299130ED3}"/>
+    <hyperlink ref="G118" r:id="rId60" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=gpalazzo&amp;dyn_lang=fr" xr:uid="{46AD9B5F-D81C-4AD1-8D88-3423284F1ABA}"/>
+    <hyperlink ref="E120" r:id="rId61" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2497?dyn_lang=fr" xr:uid="{EA82F2A7-9AF2-4B60-8046-59A7ED047049}"/>
+    <hyperlink ref="E124" r:id="rId62" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2398?dyn_lang=fr" xr:uid="{62571937-2039-4EB8-9722-A8B1C75C596D}"/>
+    <hyperlink ref="G124" r:id="rId63" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=fpetersen&amp;dyn_lang=fr" xr:uid="{D44EB205-7CB5-4683-864A-EDD923138908}"/>
+    <hyperlink ref="E126" r:id="rId64" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2096?dyn_lang=fr" xr:uid="{027AFFA5-6D01-4B2F-B824-CB65DBA88D47}"/>
+    <hyperlink ref="E130" r:id="rId65" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2636?dyn_lang=fr" xr:uid="{2D2AF021-8A4A-4BA5-838E-BE7A525DD142}"/>
+    <hyperlink ref="G130" r:id="rId66" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=krege&amp;dyn_lang=fr" xr:uid="{CA951A26-DCFF-41E5-BBBC-B39077CD0CCC}"/>
+    <hyperlink ref="E137" r:id="rId67" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2521?dyn_lang=fr" xr:uid="{58C03799-A15B-4A29-B6CB-2C972D93133C}"/>
+    <hyperlink ref="E139" r:id="rId68" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2283?dyn_lang=fr" xr:uid="{7543F1B4-C724-46F5-98BB-9EED9E41943B}"/>
+    <hyperlink ref="G139" r:id="rId69" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=mboldi&amp;dyn_lang=fr" xr:uid="{1540B261-EDCB-4BB5-AC37-37D725F45DB4}"/>
+    <hyperlink ref="E141" r:id="rId70" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2426?dyn_lang=fr" xr:uid="{C31E7E07-22B0-4585-858F-F91F0CE80114}"/>
+    <hyperlink ref="E143" r:id="rId71" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2605?dyn_lang=fr" xr:uid="{0069B9C6-552F-41E0-A7B5-D4A17AE2049E}"/>
+    <hyperlink ref="E145" r:id="rId72" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2097?dyn_lang=fr" xr:uid="{1948F2C6-251F-47F8-A77E-C76AE8BF7ED6}"/>
+    <hyperlink ref="E149" r:id="rId73" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2528?dyn_lang=fr" xr:uid="{E5FA5398-B69B-49AE-9004-3F2FF1D56912}"/>
+    <hyperlink ref="E153" r:id="rId74" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2396?dyn_lang=fr" xr:uid="{21E36743-9B16-4F51-8FBE-D6DDD775A80B}"/>
+    <hyperlink ref="E157" r:id="rId75" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2389?dyn_lang=fr" xr:uid="{97C0BFB0-6E13-4B4B-AF88-E9298EF45ED6}"/>
+    <hyperlink ref="G157" r:id="rId76" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=sscheidegger&amp;dyn_lang=fr" xr:uid="{9AECF1E2-36A0-419A-B9C4-5F361C0AD4AD}"/>
+    <hyperlink ref="E161" r:id="rId77" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2517?dyn_lang=fr" xr:uid="{71A4652F-6518-40AE-9117-0B5E8C1813D3}"/>
+    <hyperlink ref="E163" r:id="rId78" tooltip="descriptif" display="https://hecnet.unil.ch/hec/syllabus/descriptif/2388?dyn_lang=fr" xr:uid="{F32D01AD-FDBD-4797-9FA9-85B41B0E63AD}"/>
+    <hyperlink ref="G163" r:id="rId79" tooltip="page personnelle" display="https://hecnet.unil.ch/hec/recherche/fiche?pnom=sscheidegger&amp;dyn_lang=fr" xr:uid="{C1924B44-2AFA-4633-8B7A-23FF902AF0D9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId80"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6F4DAA-FAE4-477C-B50D-80BC23740661}">
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+    <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="A83" sqref="A83:A84"/>
     </sheetView>
   </sheetViews>
@@ -902,22 +4686,22 @@
       <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
+      <c r="A3" s="14">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="B3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14">
         <v>0.5</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -926,45 +4710,45 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="12"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="14"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" s="11">
+      <c r="A6" s="14">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14">
         <v>0.5</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -972,35 +4756,35 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="12"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="14"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="19"/>
       <c r="G7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="11">
+      <c r="A8" s="14">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -1009,54 +4793,54 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="16"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="16"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="12"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="14"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A12" s="11">
+      <c r="A12" s="14">
         <v>0.59375</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="B12" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="14">
         <v>0.75</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -1064,35 +4848,35 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="12"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="14"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="11">
+      <c r="A14" s="14">
         <v>0.59375</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B14" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="14">
         <v>0.75</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -1101,54 +4885,54 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="16"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="16"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="12"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="14"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="14"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="87" x14ac:dyDescent="0.35">
-      <c r="A18" s="11">
+      <c r="A18" s="14">
         <v>0.59375</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="11">
+      <c r="B18" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="14">
         <v>0.75</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G18" s="4" t="s">
@@ -1156,14 +4940,14 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="12"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="14"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="14"/>
+      <c r="F19" s="19"/>
       <c r="G19" s="10" t="s">
         <v>11</v>
       </c>
@@ -1177,22 +4961,22 @@
       <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="11">
+      <c r="A23" s="14">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="11">
+      <c r="B23" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="14">
         <v>0.5</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G23" s="4" t="s">
@@ -1200,35 +4984,35 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="12"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="14"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="14"/>
+      <c r="F24" s="19"/>
       <c r="G24" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A25" s="11">
+      <c r="A25" s="14">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="11">
+      <c r="B25" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="14">
         <v>0.5</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G25" s="4" t="s">
@@ -1236,35 +5020,35 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="12"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="14"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="14"/>
+      <c r="F26" s="19"/>
       <c r="G26" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A27" s="11">
+      <c r="A27" s="14">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="11">
+      <c r="B27" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="14">
         <v>0.5</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G27" s="3" t="s">
@@ -1273,54 +5057,54 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="16"/>
+      <c r="F28" s="18"/>
       <c r="G28" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="15"/>
-      <c r="D29" s="16"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="16"/>
+      <c r="F29" s="18"/>
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="12"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="14"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="14"/>
+      <c r="F30" s="19"/>
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="11">
+      <c r="A31" s="14">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="11">
+      <c r="B31" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="14">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G31" s="4" t="s">
@@ -1328,35 +5112,35 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="12"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="14"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="14"/>
+      <c r="F32" s="19"/>
       <c r="G32" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="11">
+      <c r="A33" s="14">
         <v>0.55208333333333337</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="11">
+      <c r="B33" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="14">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G33" s="3" t="s">
@@ -1365,54 +5149,54 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="15"/>
-      <c r="D34" s="16"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="16"/>
+      <c r="F34" s="18"/>
       <c r="G34" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="16"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="16"/>
+      <c r="F35" s="18"/>
       <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="12"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="14"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F36" s="14"/>
+      <c r="F36" s="19"/>
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" ht="87" x14ac:dyDescent="0.35">
-      <c r="A37" s="11">
+      <c r="A37" s="14">
         <v>0.59375</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="11">
+      <c r="B37" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="14">
         <v>0.75</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G37" s="4" t="s">
@@ -1421,54 +5205,54 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="15"/>
-      <c r="D38" s="16"/>
+      <c r="D38" s="18"/>
       <c r="E38" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="16"/>
+      <c r="F38" s="18"/>
       <c r="G38" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="15"/>
-      <c r="D39" s="16"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="16"/>
+      <c r="F39" s="18"/>
       <c r="G39" s="7"/>
     </row>
     <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="12"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="14"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="19"/>
       <c r="E40" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="14"/>
+      <c r="F40" s="19"/>
       <c r="G40" s="6"/>
     </row>
     <row r="41" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="11">
+      <c r="A41" s="14">
         <v>0.59375</v>
       </c>
-      <c r="B41" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="11">
+      <c r="B41" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="14">
         <v>0.75</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G41" s="4" t="s">
@@ -1477,54 +5261,54 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="15"/>
-      <c r="B42" s="16"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="15"/>
-      <c r="D42" s="16"/>
+      <c r="D42" s="18"/>
       <c r="E42" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F42" s="16"/>
+      <c r="F42" s="18"/>
       <c r="G42" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="16"/>
+      <c r="D43" s="18"/>
       <c r="E43" s="7"/>
-      <c r="F43" s="16"/>
+      <c r="F43" s="18"/>
       <c r="G43" s="7"/>
     </row>
     <row r="44" spans="1:7" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="12"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="14"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="19"/>
       <c r="E44" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="14"/>
+      <c r="F44" s="19"/>
       <c r="G44" s="6"/>
     </row>
     <row r="45" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="11">
+      <c r="A45" s="14">
         <v>0.59375</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="11">
+      <c r="B45" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="14">
         <v>0.75</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G45" s="4" t="s">
@@ -1532,14 +5316,14 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="12"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="14"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="19"/>
       <c r="E46" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F46" s="14"/>
+      <c r="F46" s="19"/>
       <c r="G46" s="10" t="s">
         <v>11</v>
       </c>
@@ -1553,22 +5337,22 @@
       <c r="A49" s="2"/>
     </row>
     <row r="50" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A50" s="11">
+      <c r="A50" s="14">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B50" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="11">
+      <c r="B50" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="14">
         <v>0.5</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G50" s="4" t="s">
@@ -1577,54 +5361,54 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="15"/>
-      <c r="B51" s="16"/>
+      <c r="B51" s="18"/>
       <c r="C51" s="15"/>
-      <c r="D51" s="16"/>
+      <c r="D51" s="18"/>
       <c r="E51" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F51" s="16"/>
+      <c r="F51" s="18"/>
       <c r="G51" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="15"/>
-      <c r="B52" s="16"/>
+      <c r="B52" s="18"/>
       <c r="C52" s="15"/>
-      <c r="D52" s="16"/>
+      <c r="D52" s="18"/>
       <c r="E52" s="7"/>
-      <c r="F52" s="16"/>
+      <c r="F52" s="18"/>
       <c r="G52" s="7"/>
     </row>
     <row r="53" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="12"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="14"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="19"/>
       <c r="E53" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F53" s="14"/>
+      <c r="F53" s="19"/>
       <c r="G53" s="6"/>
     </row>
     <row r="54" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A54" s="11">
+      <c r="A54" s="14">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B54" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="11">
+      <c r="B54" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="14">
         <v>0.5</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F54" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G54" s="4" t="s">
@@ -1632,35 +5416,35 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="12"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="14"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="19"/>
       <c r="E55" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F55" s="14"/>
+      <c r="F55" s="19"/>
       <c r="G55" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A56" s="11">
+      <c r="A56" s="14">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B56" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="11">
+      <c r="B56" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="14">
         <v>0.5</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F56" s="13" t="s">
+      <c r="F56" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G56" s="4" t="s">
@@ -1668,35 +5452,35 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="12"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="14"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="19"/>
       <c r="E57" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="14"/>
+      <c r="F57" s="19"/>
       <c r="G57" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A58" s="11">
+      <c r="A58" s="14">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B58" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="11">
+      <c r="B58" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="14">
         <v>0.5</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F58" s="13" t="s">
+      <c r="F58" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G58" s="4" t="s">
@@ -1705,54 +5489,54 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="15"/>
-      <c r="B59" s="16"/>
+      <c r="B59" s="18"/>
       <c r="C59" s="15"/>
-      <c r="D59" s="16"/>
+      <c r="D59" s="18"/>
       <c r="E59" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F59" s="16"/>
+      <c r="F59" s="18"/>
       <c r="G59" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="15"/>
-      <c r="B60" s="16"/>
+      <c r="B60" s="18"/>
       <c r="C60" s="15"/>
-      <c r="D60" s="16"/>
+      <c r="D60" s="18"/>
       <c r="E60" s="7"/>
-      <c r="F60" s="16"/>
+      <c r="F60" s="18"/>
       <c r="G60" s="7"/>
     </row>
     <row r="61" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="12"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="14"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="19"/>
       <c r="E61" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F61" s="14"/>
+      <c r="F61" s="19"/>
       <c r="G61" s="6"/>
     </row>
     <row r="62" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A62" s="11">
+      <c r="A62" s="14">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B62" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="11">
+      <c r="B62" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="14">
         <v>0.5</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F62" s="13" t="s">
+      <c r="F62" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G62" s="4" t="s">
@@ -1761,54 +5545,54 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="15"/>
-      <c r="B63" s="16"/>
+      <c r="B63" s="18"/>
       <c r="C63" s="15"/>
-      <c r="D63" s="16"/>
+      <c r="D63" s="18"/>
       <c r="E63" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F63" s="16"/>
+      <c r="F63" s="18"/>
       <c r="G63" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="15"/>
-      <c r="B64" s="16"/>
+      <c r="B64" s="18"/>
       <c r="C64" s="15"/>
-      <c r="D64" s="16"/>
+      <c r="D64" s="18"/>
       <c r="E64" s="7"/>
-      <c r="F64" s="16"/>
+      <c r="F64" s="18"/>
       <c r="G64" s="7"/>
     </row>
     <row r="65" spans="1:7" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="12"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="14"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="19"/>
       <c r="E65" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F65" s="14"/>
+      <c r="F65" s="19"/>
       <c r="G65" s="6"/>
     </row>
     <row r="66" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="11">
+      <c r="A66" s="14">
         <v>0.59375</v>
       </c>
-      <c r="B66" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="11">
+      <c r="B66" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="14">
         <v>0.75</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D66" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F66" s="13" t="s">
+      <c r="F66" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G66" s="4" t="s">
@@ -1817,54 +5601,54 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="15"/>
-      <c r="B67" s="16"/>
+      <c r="B67" s="18"/>
       <c r="C67" s="15"/>
-      <c r="D67" s="16"/>
+      <c r="D67" s="18"/>
       <c r="E67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="16"/>
+      <c r="F67" s="18"/>
       <c r="G67" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="15"/>
-      <c r="B68" s="16"/>
+      <c r="B68" s="18"/>
       <c r="C68" s="15"/>
-      <c r="D68" s="16"/>
+      <c r="D68" s="18"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="16"/>
+      <c r="F68" s="18"/>
       <c r="G68" s="7"/>
     </row>
     <row r="69" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="12"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="14"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="19"/>
       <c r="E69" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F69" s="14"/>
+      <c r="F69" s="19"/>
       <c r="G69" s="6"/>
     </row>
     <row r="70" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="11">
+      <c r="A70" s="14">
         <v>0.59375</v>
       </c>
-      <c r="B70" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="11">
+      <c r="B70" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="14">
         <v>0.75</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="D70" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F70" s="13" t="s">
+      <c r="F70" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G70" s="4" t="s">
@@ -1872,35 +5656,35 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="12"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="14"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="19"/>
       <c r="E71" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F71" s="14"/>
+      <c r="F71" s="19"/>
       <c r="G71" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="11">
+      <c r="A72" s="14">
         <v>0.59375</v>
       </c>
-      <c r="B72" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" s="11">
+      <c r="B72" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="14">
         <v>0.75</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="D72" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F72" s="13" t="s">
+      <c r="F72" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G72" s="4" t="s">
@@ -1908,35 +5692,35 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="12"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="14"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="19"/>
       <c r="E73" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F73" s="14"/>
+      <c r="F73" s="19"/>
       <c r="G73" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A74" s="11">
+      <c r="A74" s="14">
         <v>0.59375</v>
       </c>
-      <c r="B74" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="11">
+      <c r="B74" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="14">
         <v>0.75</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="D74" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F74" s="13" t="s">
+      <c r="F74" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G74" s="4" t="s">
@@ -1944,35 +5728,35 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="12"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="14"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="19"/>
       <c r="E75" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F75" s="14"/>
+      <c r="F75" s="19"/>
       <c r="G75" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A76" s="11">
+      <c r="A76" s="14">
         <v>0.71875</v>
       </c>
-      <c r="B76" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="11">
+      <c r="B76" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="14">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D76" s="13" t="s">
+      <c r="D76" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F76" s="13" t="s">
+      <c r="F76" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G76" s="3" t="s">
@@ -1980,14 +5764,14 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="12"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="14"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="19"/>
       <c r="E77" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F77" s="14"/>
+      <c r="F77" s="19"/>
       <c r="G77" s="10" t="s">
         <v>7</v>
       </c>
@@ -2001,22 +5785,22 @@
       <c r="A80" s="2"/>
     </row>
     <row r="81" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="11">
+      <c r="A81" s="14">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B81" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" s="11">
+      <c r="B81" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="14">
         <v>0.5</v>
       </c>
-      <c r="D81" s="13" t="s">
+      <c r="D81" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F81" s="13" t="s">
+      <c r="F81" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G81" s="4" t="s">
@@ -2024,35 +5808,35 @@
       </c>
     </row>
     <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="12"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="14"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="19"/>
       <c r="E82" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F82" s="14"/>
+      <c r="F82" s="19"/>
       <c r="G82" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="11">
+      <c r="A83" s="14">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B83" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" s="11">
+      <c r="B83" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="14">
         <v>0.5</v>
       </c>
-      <c r="D83" s="13" t="s">
+      <c r="D83" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F83" s="13" t="s">
+      <c r="F83" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G83" s="4" t="s">
@@ -2060,35 +5844,35 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="12"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="14"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="19"/>
       <c r="E84" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F84" s="14"/>
+      <c r="F84" s="19"/>
       <c r="G84" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="11">
+      <c r="A85" s="14">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B85" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" s="11">
+      <c r="B85" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="14">
         <v>0.5</v>
       </c>
-      <c r="D85" s="13" t="s">
+      <c r="D85" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F85" s="13" t="s">
+      <c r="F85" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G85" s="4" t="s">
@@ -2096,35 +5880,35 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="12"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="14"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="19"/>
       <c r="E86" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F86" s="14"/>
+      <c r="F86" s="19"/>
       <c r="G86" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="11">
+      <c r="A87" s="14">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B87" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" s="11">
+      <c r="B87" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="14">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D87" s="13" t="s">
+      <c r="D87" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F87" s="13" t="s">
+      <c r="F87" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G87" s="4" t="s">
@@ -2132,35 +5916,35 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="12"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="14"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="19"/>
       <c r="E88" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F88" s="14"/>
+      <c r="F88" s="19"/>
       <c r="G88" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A89" s="11">
+      <c r="A89" s="14">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B89" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C89" s="11">
+      <c r="B89" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="14">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D89" s="13" t="s">
+      <c r="D89" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F89" s="13" t="s">
+      <c r="F89" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G89" s="4" t="s">
@@ -2169,56 +5953,56 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="15"/>
-      <c r="B90" s="16"/>
+      <c r="B90" s="18"/>
       <c r="C90" s="15"/>
-      <c r="D90" s="16"/>
+      <c r="D90" s="18"/>
       <c r="E90" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F90" s="16"/>
+      <c r="F90" s="18"/>
       <c r="G90" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.35">
       <c r="A91" s="15"/>
-      <c r="B91" s="16"/>
+      <c r="B91" s="18"/>
       <c r="C91" s="15"/>
-      <c r="D91" s="16"/>
+      <c r="D91" s="18"/>
       <c r="E91" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F91" s="16"/>
+      <c r="F91" s="18"/>
       <c r="G91" s="7"/>
     </row>
     <row r="92" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="12"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="14"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="19"/>
       <c r="E92" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F92" s="14"/>
+      <c r="F92" s="19"/>
       <c r="G92" s="6"/>
     </row>
     <row r="93" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A93" s="11">
+      <c r="A93" s="14">
         <v>0.59375</v>
       </c>
-      <c r="B93" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93" s="11">
+      <c r="B93" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="14">
         <v>0.75</v>
       </c>
-      <c r="D93" s="13" t="s">
+      <c r="D93" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F93" s="13" t="s">
+      <c r="F93" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G93" s="4" t="s">
@@ -2226,35 +6010,35 @@
       </c>
     </row>
     <row r="94" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="12"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="14"/>
+      <c r="A94" s="16"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="19"/>
       <c r="E94" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F94" s="14"/>
+      <c r="F94" s="19"/>
       <c r="G94" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A95" s="11">
+      <c r="A95" s="14">
         <v>0.59375</v>
       </c>
-      <c r="B95" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" s="11">
+      <c r="B95" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="14">
         <v>0.75</v>
       </c>
-      <c r="D95" s="13" t="s">
+      <c r="D95" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F95" s="13" t="s">
+      <c r="F95" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G95" s="4" t="s">
@@ -2263,54 +6047,54 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="15"/>
-      <c r="B96" s="16"/>
+      <c r="B96" s="18"/>
       <c r="C96" s="15"/>
-      <c r="D96" s="16"/>
+      <c r="D96" s="18"/>
       <c r="E96" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F96" s="16"/>
+      <c r="F96" s="18"/>
       <c r="G96" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="15"/>
-      <c r="B97" s="16"/>
+      <c r="B97" s="18"/>
       <c r="C97" s="15"/>
-      <c r="D97" s="16"/>
+      <c r="D97" s="18"/>
       <c r="E97" s="7"/>
-      <c r="F97" s="16"/>
+      <c r="F97" s="18"/>
       <c r="G97" s="7"/>
     </row>
     <row r="98" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="12"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="14"/>
+      <c r="A98" s="16"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="19"/>
       <c r="E98" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F98" s="14"/>
+      <c r="F98" s="19"/>
       <c r="G98" s="6"/>
     </row>
     <row r="99" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A99" s="11">
+      <c r="A99" s="14">
         <v>0.59375</v>
       </c>
-      <c r="B99" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C99" s="11">
+      <c r="B99" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="14">
         <v>0.75</v>
       </c>
-      <c r="D99" s="13" t="s">
+      <c r="D99" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F99" s="13" t="s">
+      <c r="F99" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G99" s="4" t="s">
@@ -2319,35 +6103,35 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="15"/>
-      <c r="B100" s="16"/>
+      <c r="B100" s="18"/>
       <c r="C100" s="15"/>
-      <c r="D100" s="16"/>
+      <c r="D100" s="18"/>
       <c r="E100" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F100" s="16"/>
+      <c r="F100" s="18"/>
       <c r="G100" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="15"/>
-      <c r="B101" s="16"/>
+      <c r="B101" s="18"/>
       <c r="C101" s="15"/>
-      <c r="D101" s="16"/>
+      <c r="D101" s="18"/>
       <c r="E101" s="7"/>
-      <c r="F101" s="16"/>
+      <c r="F101" s="18"/>
       <c r="G101" s="7"/>
     </row>
     <row r="102" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="12"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="14"/>
+      <c r="A102" s="16"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="19"/>
       <c r="E102" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F102" s="14"/>
+      <c r="F102" s="19"/>
       <c r="G102" s="10"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
@@ -2359,22 +6143,22 @@
       <c r="A105" s="2"/>
     </row>
     <row r="106" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A106" s="11">
+      <c r="A106" s="14">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B106" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C106" s="11">
+      <c r="B106" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="14">
         <v>0.5</v>
       </c>
-      <c r="D106" s="13" t="s">
+      <c r="D106" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F106" s="13" t="s">
+      <c r="F106" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G106" s="4" t="s">
@@ -2382,35 +6166,35 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="12"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="14"/>
+      <c r="A107" s="16"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="19"/>
       <c r="E107" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F107" s="14"/>
+      <c r="F107" s="19"/>
       <c r="G107" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A108" s="11">
+      <c r="A108" s="14">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B108" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C108" s="11">
+      <c r="B108" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="14">
         <v>0.5</v>
       </c>
-      <c r="D108" s="13" t="s">
+      <c r="D108" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F108" s="13" t="s">
+      <c r="F108" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G108" s="4" t="s">
@@ -2419,54 +6203,54 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="15"/>
-      <c r="B109" s="16"/>
+      <c r="B109" s="18"/>
       <c r="C109" s="15"/>
-      <c r="D109" s="16"/>
+      <c r="D109" s="18"/>
       <c r="E109" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F109" s="16"/>
+      <c r="F109" s="18"/>
       <c r="G109" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="15"/>
-      <c r="B110" s="16"/>
+      <c r="B110" s="18"/>
       <c r="C110" s="15"/>
-      <c r="D110" s="16"/>
+      <c r="D110" s="18"/>
       <c r="E110" s="7"/>
-      <c r="F110" s="16"/>
+      <c r="F110" s="18"/>
       <c r="G110" s="7"/>
     </row>
     <row r="111" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="12"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="14"/>
+      <c r="A111" s="16"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="19"/>
       <c r="E111" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F111" s="14"/>
+      <c r="F111" s="19"/>
       <c r="G111" s="6"/>
     </row>
     <row r="112" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A112" s="11">
+      <c r="A112" s="14">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B112" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C112" s="11">
+      <c r="B112" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" s="14">
         <v>0.5</v>
       </c>
-      <c r="D112" s="13" t="s">
+      <c r="D112" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F112" s="13" t="s">
+      <c r="F112" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G112" s="4" t="s">
@@ -2474,35 +6258,35 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="12"/>
-      <c r="B113" s="14"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="14"/>
+      <c r="A113" s="16"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="19"/>
       <c r="E113" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F113" s="14"/>
+      <c r="F113" s="19"/>
       <c r="G113" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A114" s="11">
+      <c r="A114" s="14">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B114" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C114" s="11">
+      <c r="B114" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" s="14">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D114" s="13" t="s">
+      <c r="D114" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F114" s="13" t="s">
+      <c r="F114" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G114" s="4" t="s">
@@ -2510,35 +6294,35 @@
       </c>
     </row>
     <row r="115" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="12"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="14"/>
+      <c r="A115" s="16"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="19"/>
       <c r="E115" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F115" s="14"/>
+      <c r="F115" s="19"/>
       <c r="G115" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A116" s="11">
+      <c r="A116" s="14">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B116" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C116" s="11">
+      <c r="B116" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" s="14">
         <v>0.5</v>
       </c>
-      <c r="D116" s="13" t="s">
+      <c r="D116" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F116" s="13" t="s">
+      <c r="F116" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G116" s="4" t="s">
@@ -2546,35 +6330,35 @@
       </c>
     </row>
     <row r="117" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="12"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="14"/>
+      <c r="A117" s="16"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="19"/>
       <c r="E117" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F117" s="14"/>
+      <c r="F117" s="19"/>
       <c r="G117" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A118" s="11">
+      <c r="A118" s="14">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B118" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C118" s="11">
+      <c r="B118" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" s="14">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D118" s="13" t="s">
+      <c r="D118" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F118" s="13" t="s">
+      <c r="F118" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G118" s="4" t="s">
@@ -2582,14 +6366,14 @@
       </c>
     </row>
     <row r="119" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="12"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="14"/>
+      <c r="A119" s="16"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="19"/>
       <c r="E119" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F119" s="14"/>
+      <c r="F119" s="19"/>
       <c r="G119" s="10" t="s">
         <v>11</v>
       </c>
